--- a/data/Unicrypt/Unicrypt20160701.xlsx
+++ b/data/Unicrypt/Unicrypt20160701.xlsx
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59">
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78">
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84">
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105">
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140">
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156">
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="159">
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="183">
